--- a/src/main/resources/esempi_documentazione/Esempi.xlsx
+++ b/src/main/resources/esempi_documentazione/Esempi.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage\Documentazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\esempi_documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA145DE-D1B5-416D-944B-2CC2B7456688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5294B29-5667-40A2-A382-EDAB6A8C345B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{F32AA4DB-499C-4B82-BD61-C2DF24565551}"/>
+    <workbookView xWindow="2250" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{F32AA4DB-499C-4B82-BD61-C2DF24565551}"/>
   </bookViews>
   <sheets>
     <sheet name="FUN" sheetId="3" r:id="rId1"/>
     <sheet name="Ticket" sheetId="2" r:id="rId2"/>
     <sheet name="FunDemo" sheetId="4" r:id="rId3"/>
+    <sheet name="FunDemo2" sheetId="5" r:id="rId4"/>
+    <sheet name="FunAuto" sheetId="6" r:id="rId5"/>
+    <sheet name="FunAuto2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,6 +41,19 @@
     <author>MauroWB</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{263E8CC8-56D9-4B60-BFA6-3FBFAC9DBC51}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="F15")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A5" authorId="0" shapeId="0" xr:uid="{5CD6B069-2563-424B-981E-485731876621}">
       <text>
         <r>
@@ -48,32 +64,6 @@
             <family val="2"/>
           </rPr>
           <t>jx:each(lastCell="F15" items="funticket_rows" var="funticket_rows" direction="DOWN")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{082E497B-38F4-4A13-B59A-6AE46F10CA6F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:image(lastCell="A7" src="static_image" imageType="PNG")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{F9609DA4-BE65-42EE-9354-7C18C165093E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:image(lastCell="E8" src="user_ph" imageType="PNG")</t>
         </r>
       </text>
     </comment>
@@ -143,8 +133,106 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D295A809-53FE-4FBE-B7A3-75CE746875F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="C10")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{67764109-1509-4432-B9C7-22D9F087716E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="C10" items="fundemo2_rows" var="fundemo2_rows" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3959829F-F457-4A28-B5BD-010F2F322E5D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="C4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{375D68DC-B701-4D1E-8D01-D7BA73838FFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="A4" items="funauto_STR001" var="funauto_STR001" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B8D77859-A088-4B39-9D9B-9BCA9AC2F6F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="B4" items="funauto_STR004" var="funauto_STR004" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{392ED844-4596-49AC-B896-2CFFD798FC33}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="C4" items="funauto_STR008" var="funauto_STR008" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Da assegnare:</t>
   </si>
@@ -182,9 +270,6 @@
     <t>Lettura Fun</t>
   </si>
   <si>
-    <t>FUN</t>
-  </si>
-  <si>
     <t>Il nome di ciascuna fun deve cominciare con il prefisso fun.</t>
   </si>
   <si>
@@ -197,27 +282,12 @@
     <t>F(EXB;B£SER_43B;EMIMAT) 1(;;) 2(;;) INPUT()</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>funticket</t>
   </si>
   <si>
     <t>fundemo</t>
   </si>
   <si>
-    <t>${funticket_rows.percentuale}</t>
-  </si>
-  <si>
-    <t>${funticket_rows.descrizione}</t>
-  </si>
-  <si>
-    <t>${funticket_rows.urgenza}</t>
-  </si>
-  <si>
-    <t>${funticket_rows.data}</t>
-  </si>
-  <si>
     <t>${fundemo_XXXA}</t>
   </si>
   <si>
@@ -225,6 +295,116 @@
   </si>
   <si>
     <t>${fundemo_XXX3}</t>
+  </si>
+  <si>
+    <t>${funticket_rows}</t>
+  </si>
+  <si>
+    <t>${funticket_rows.getFormattedCellValues()}</t>
+  </si>
+  <si>
+    <t>${funticket_rows.get("Z§NU01")}</t>
+  </si>
+  <si>
+    <t>${funticket_rows.get("$$AIMP_DE")}</t>
+  </si>
+  <si>
+    <t>${funticket_row.getValueForColumnCode("Z§DADO")}</t>
+  </si>
+  <si>
+    <t>take 10 - Date</t>
+  </si>
+  <si>
+    <t>Nome:</t>
+  </si>
+  <si>
+    <t>fundemo2</t>
+  </si>
+  <si>
+    <t>F(EXB;LOA13_SE;ESE.SQL) 1(;;) 2(;;) P(TPZ() NRW(30) CHD() HML() SNM() LVL() SRP() T01()) INPUT(SELECT * FROM X1TASK0F)</t>
+  </si>
+  <si>
+    <t>${fundemo2_rows.get("X1DESC")}</t>
+  </si>
+  <si>
+    <t>Descrizione:</t>
+  </si>
+  <si>
+    <t>${fundemo2_rows.get("X1USAS")}</t>
+  </si>
+  <si>
+    <t>${fundemo2_rows.get("X1NREC")}</t>
+  </si>
+  <si>
+    <t>0000000072</t>
+  </si>
+  <si>
+    <t>SANCOS</t>
+  </si>
+  <si>
+    <t>Configuratore : aiutare Federico sulla definizione del protocollo aggiornamento.</t>
+  </si>
+  <si>
+    <t>0000000073</t>
+  </si>
+  <si>
+    <t>CASFRA</t>
+  </si>
+  <si>
+    <t>booleanButton: in mobile non esiste questo componente</t>
+  </si>
+  <si>
+    <t>0000000074</t>
+  </si>
+  <si>
+    <t>MINCLA</t>
+  </si>
+  <si>
+    <t>In mobile, css da modificare:
+spinner (SPN)
+slider (SLD)
+radiobutton (RAD)
+checkboxlist (CHL)
+immagine (IMG)
+rating (RTG)
+range (RNG)
+button colore default (BTN)</t>
+  </si>
+  <si>
+    <t>0000000075</t>
+  </si>
+  <si>
+    <t>controllare quali field non hanno il p:ajax</t>
+  </si>
+  <si>
+    <t>Risultato</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>funauto</t>
+  </si>
+  <si>
+    <t>F(EXB;B£SER_46;WRK.SCP) 1(MB;SCP_SET;WETEST_EXB) 2(;;MAT_013) INPUT()</t>
+  </si>
+  <si>
+    <t>Modalità automatica</t>
+  </si>
+  <si>
+    <t>${funauto_STR001}</t>
+  </si>
+  <si>
+    <t>${funauto_STR004}</t>
+  </si>
+  <si>
+    <t>${funauto_STR008}</t>
+  </si>
+  <si>
+    <t>${funauto_row02}</t>
+  </si>
+  <si>
+    <t>${funauto_row05}</t>
   </si>
 </sst>
 </file>
@@ -235,7 +415,7 @@
     <numFmt numFmtId="164" formatCode="##\%"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +498,28 @@
       <color theme="1"/>
       <name val="Lato UI"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Lao UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lao UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,8 +568,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -495,11 +713,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -543,9 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -555,6 +836,38 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,13 +1539,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3969003D-A273-4C5D-9B24-6F16C71611B0}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="31" customFormat="1" ht="26.25">
       <c r="A1" s="33" t="s">
@@ -1246,31 +1562,43 @@
     </row>
     <row r="3" spans="1:2" s="32" customFormat="1">
       <c r="A3" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="34"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1284,12 +1612,12 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1307,6 +1635,9 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:18">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="24"/>
@@ -1328,7 +1659,9 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="M4" s="23" t="s">
@@ -1371,42 +1704,42 @@
     <row r="7" spans="1:18">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="35"/>
+      <c r="C7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="50"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="35"/>
+      <c r="P7" s="50"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
@@ -1427,7 +1760,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1481,10 +1814,10 @@
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
@@ -1534,26 +1867,26 @@
     <row r="19" spans="13:18">
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="35" t="s">
+      <c r="O19" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="35"/>
+      <c r="P19" s="50"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="13:18">
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="9"/>
     </row>
     <row r="21" spans="13:18">
       <c r="M21" s="7"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="9"/>
     </row>
@@ -1642,26 +1975,26 @@
     <row r="31" spans="13:18">
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="35"/>
+      <c r="P31" s="50"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="13:18">
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="13:18">
       <c r="M33" s="7"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="9"/>
     </row>
@@ -1750,26 +2083,26 @@
     <row r="43" spans="13:18">
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="35" t="s">
+      <c r="O43" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P43" s="35"/>
+      <c r="P43" s="50"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="9"/>
     </row>
     <row r="44" spans="13:18">
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="9"/>
     </row>
     <row r="45" spans="13:18">
       <c r="M45" s="7"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="9"/>
     </row>
@@ -1898,45 +2231,436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C11D10-F35D-47D5-BC03-ABC92FC58571}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="18.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="36"/>
-    <col min="6" max="6" width="15.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="18.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="6" max="6" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="41" t="s">
-        <v>15</v>
+      <c r="A1" s="40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>24</v>
+      <c r="A3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37"/>
+      <c r="A4" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="F8" s="42"/>
+      <c r="F8" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CED9BC-1026-4A5E-8588-FB8BDDEBCDBB}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B3" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="I3" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="46"/>
+      <c r="C7" s="51"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="48"/>
+      <c r="C8" s="52"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+      <c r="I11" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="I12" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="I14" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15" s="46"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16" s="48"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="18" spans="9:10" ht="15.75" thickBot="1"/>
+    <row r="19" spans="9:10" ht="16.5" thickBot="1">
+      <c r="I19" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23" s="46"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="48"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="26" spans="9:10" ht="15.75" thickBot="1"/>
+    <row r="27" spans="9:10" ht="16.5" thickBot="1">
+      <c r="I27" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="9:10">
+      <c r="I28" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10">
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="9:10">
+      <c r="I30" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10">
+      <c r="I31" s="46"/>
+      <c r="J31" s="51"/>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="48"/>
+      <c r="J32" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF74CB0-8210-4707-8613-AF2031628ED6}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="G1" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="56">
+        <v>5</v>
+      </c>
+      <c r="H4" s="57">
+        <v>-1.05</v>
+      </c>
+      <c r="I4" s="56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="G5" s="56">
+        <v>1</v>
+      </c>
+      <c r="H5" s="57">
+        <v>-2.5</v>
+      </c>
+      <c r="I5" s="56">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="G6" s="56">
+        <v>1</v>
+      </c>
+      <c r="H6" s="57">
+        <v>-3</v>
+      </c>
+      <c r="I6" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="G7" s="56">
+        <v>2</v>
+      </c>
+      <c r="H7" s="57">
+        <v>-4</v>
+      </c>
+      <c r="I7" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="G8" s="56">
+        <v>2</v>
+      </c>
+      <c r="H8" s="57">
+        <v>-12</v>
+      </c>
+      <c r="I8" s="56">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="G9" s="56">
+        <v>2</v>
+      </c>
+      <c r="H9" s="57">
+        <v>-13</v>
+      </c>
+      <c r="I9" s="56">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="G10" s="56">
+        <v>2</v>
+      </c>
+      <c r="H10" s="57">
+        <v>-14</v>
+      </c>
+      <c r="I10" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="G11" s="56">
+        <v>2</v>
+      </c>
+      <c r="H11" s="57">
+        <v>-35</v>
+      </c>
+      <c r="I11" s="56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="G12" s="56">
+        <v>1</v>
+      </c>
+      <c r="H12" s="57">
+        <v>-55</v>
+      </c>
+      <c r="I12" s="56">
+        <v>55.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="G13" s="56">
+        <v>1</v>
+      </c>
+      <c r="H13" s="57">
+        <v>-121</v>
+      </c>
+      <c r="I13" s="56">
+        <v>20.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39E3CF-705D-4F3B-A95B-9212169923CD}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/esempi_documentazione/Esempi.xlsx
+++ b/src/main/resources/esempi_documentazione/Esempi.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\esempi_documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5294B29-5667-40A2-A382-EDAB6A8C345B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87DA26-1783-44EA-918C-FF9C2D2862CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{F32AA4DB-499C-4B82-BD61-C2DF24565551}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{F32AA4DB-499C-4B82-BD61-C2DF24565551}"/>
   </bookViews>
   <sheets>
     <sheet name="FUN" sheetId="3" r:id="rId1"/>
-    <sheet name="Ticket" sheetId="2" r:id="rId2"/>
-    <sheet name="FunDemo" sheetId="4" r:id="rId3"/>
-    <sheet name="FunDemo2" sheetId="5" r:id="rId4"/>
-    <sheet name="FunAuto" sheetId="6" r:id="rId5"/>
+    <sheet name="FunAuto" sheetId="6" r:id="rId2"/>
+    <sheet name="FunManuale" sheetId="5" r:id="rId3"/>
+    <sheet name="FunDemo" sheetId="4" r:id="rId4"/>
+    <sheet name="Ticket" sheetId="2" r:id="rId5"/>
     <sheet name="FunAuto2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
     <author>MauroWB</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{263E8CC8-56D9-4B60-BFA6-3FBFAC9DBC51}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{52ADF1D5-99C1-4C02-A6E4-7C4C18FD652C}">
       <text>
         <r>
           <rPr>
@@ -50,11 +50,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="F15")</t>
+          <t>jx:area(lastCell="C4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{5CD6B069-2563-424B-981E-485731876621}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{FC0A418A-5997-4B56-92AB-8708C428BE10}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(lastCell="F15" items="funticket_rows" var="funticket_rows" direction="DOWN")</t>
+          <t>jx:each(lastCell="A4" items="funauto_STR001" var="funauto_STR001" direction="DOWN)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{3FD0B5CD-39A3-4892-B563-38F31139028A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="B4" items="funauto_STR004" var="funauto_STR004" direction="DOWN)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{03BE21D3-7A32-44D3-A6F3-9257F1440F4D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="C4" items="funauto_STR008" var="funauto_STR008" direction="DOWN)</t>
         </r>
       </text>
     </comment>
@@ -72,6 +98,42 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D295A809-53FE-4FBE-B7A3-75CE746875F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="C10")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{67764109-1509-4432-B9C7-22D9F087716E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="C10" items="funmanuale_rows" var="funmanuale_rows" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MauroWB</author>
@@ -133,13 +195,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MauroWB</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D295A809-53FE-4FBE-B7A3-75CE746875F0}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{263E8CC8-56D9-4B60-BFA6-3FBFAC9DBC51}">
       <text>
         <r>
           <rPr>
@@ -148,11 +210,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="C10")</t>
+          <t>jx:area(lastCell="F15")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{67764109-1509-4432-B9C7-22D9F087716E}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{5CD6B069-2563-424B-981E-485731876621}">
       <text>
         <r>
           <rPr>
@@ -161,7 +223,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(lastCell="C10" items="fundemo2_rows" var="fundemo2_rows" direction="DOWN")</t>
+          <t>jx:each(lastCell="F15" items="funticket_rows" var="funticket_rows" direction="DOWN")</t>
         </r>
       </text>
     </comment>
@@ -169,13 +231,13 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MauroWB</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3959829F-F457-4A28-B5BD-010F2F322E5D}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C089FE29-7A7D-4820-ABF1-0375272A6253}">
       <text>
         <r>
           <rPr>
@@ -184,11 +246,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="C4")</t>
+          <t>jx:area(lastCell="A6")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{375D68DC-B701-4D1E-8D01-D7BA73838FFC}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{62D7D535-9960-4532-AC67-88E397F7BDA8}">
       <text>
         <r>
           <rPr>
@@ -197,11 +259,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(lastCell="A4" items="funauto_STR001" var="funauto_STR001" direction="DOWN")</t>
+          <t>jx:each(lastCell="A3" items="funauto_R03" var="funauto_R03" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B8D77859-A088-4B39-9D9B-9BCA9AC2F6F7}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{EE7CC422-FE04-4D7D-9F47-F50B5EB2F8C5}">
       <text>
         <r>
           <rPr>
@@ -210,11 +272,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(lastCell="B4" items="funauto_STR004" var="funauto_STR004" direction="DOWN")</t>
+          <t>jx:each(lastCell="A4" items="funauto_R04" var="funauto_R04" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{392ED844-4596-49AC-B896-2CFFD798FC33}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{74814306-2110-4C06-A9E8-9949598215CF}">
       <text>
         <r>
           <rPr>
@@ -223,7 +285,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(lastCell="C4" items="funauto_STR008" var="funauto_STR008" direction="DOWN")</t>
+          <t>jx:each(lastCell="A5" items="funauto_R01" var="funauto_R01" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{928822A6-B7C2-43E7-85D9-CB85C4FB88B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="A6" items="funauto_R02" var="funauto_R02" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -232,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Da assegnare:</t>
   </si>
@@ -297,43 +372,19 @@
     <t>${fundemo_XXX3}</t>
   </si>
   <si>
-    <t>${funticket_rows}</t>
-  </si>
-  <si>
-    <t>${funticket_rows.getFormattedCellValues()}</t>
-  </si>
-  <si>
     <t>${funticket_rows.get("Z§NU01")}</t>
   </si>
   <si>
     <t>${funticket_rows.get("$$AIMP_DE")}</t>
   </si>
   <si>
-    <t>${funticket_row.getValueForColumnCode("Z§DADO")}</t>
-  </si>
-  <si>
-    <t>take 10 - Date</t>
-  </si>
-  <si>
     <t>Nome:</t>
   </si>
   <si>
-    <t>fundemo2</t>
-  </si>
-  <si>
     <t>F(EXB;LOA13_SE;ESE.SQL) 1(;;) 2(;;) P(TPZ() NRW(30) CHD() HML() SNM() LVL() SRP() T01()) INPUT(SELECT * FROM X1TASK0F)</t>
   </si>
   <si>
-    <t>${fundemo2_rows.get("X1DESC")}</t>
-  </si>
-  <si>
     <t>Descrizione:</t>
-  </si>
-  <si>
-    <t>${fundemo2_rows.get("X1USAS")}</t>
-  </si>
-  <si>
-    <t>${fundemo2_rows.get("X1NREC")}</t>
   </si>
   <si>
     <t>0000000072</t>
@@ -389,9 +440,6 @@
     <t>F(EXB;B£SER_46;WRK.SCP) 1(MB;SCP_SET;WETEST_EXB) 2(;;MAT_013) INPUT()</t>
   </si>
   <si>
-    <t>Modalità automatica</t>
-  </si>
-  <si>
     <t>${funauto_STR001}</t>
   </si>
   <si>
@@ -401,10 +449,34 @@
     <t>${funauto_STR008}</t>
   </si>
   <si>
-    <t>${funauto_row02}</t>
-  </si>
-  <si>
-    <t>${funauto_row05}</t>
+    <t>funmanuale</t>
+  </si>
+  <si>
+    <t>${funmanuale_rows.get("X1NREC")}</t>
+  </si>
+  <si>
+    <t>${funmanuale_rows.get("X1USAS")}</t>
+  </si>
+  <si>
+    <t>${funmanuale_rows.get("X1DESC")}</t>
+  </si>
+  <si>
+    <t>${funauto_R03}</t>
+  </si>
+  <si>
+    <t>${funauto_R01}</t>
+  </si>
+  <si>
+    <t>${funauto_R02}</t>
+  </si>
+  <si>
+    <t>${funauto_R04}</t>
+  </si>
+  <si>
+    <t>${funticket_rows.get("Z§DADO")}</t>
+  </si>
+  <si>
+    <t>${funticket_rows.get("Z§AOBB")}</t>
   </si>
 </sst>
 </file>
@@ -558,18 +630,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,8 +646,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -779,11 +851,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -818,8 +899,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -839,13 +918,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -859,14 +951,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,363 +969,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7B84A2-86E7-4826-8FDC-E06D5D7D2EFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="923925"/>
-          <a:ext cx="304800" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967B841C-388F-4659-B52E-83B74C383F78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="923925"/>
-          <a:ext cx="504825" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B59FBAC-CF5A-491D-9B16-9AFAC97675FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2876550"/>
-          <a:ext cx="304800" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3756D0EA-1C21-482E-99DF-4FA3FB168117}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="2876550"/>
-          <a:ext cx="504825" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF7A869-7F3C-4E06-B5AA-C6FF6923DBDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4829175"/>
-          <a:ext cx="304800" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6246EFE-3D28-449C-8E94-4FAC9D81A2B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="4829175"/>
-          <a:ext cx="504825" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B12CEA7-9F3F-4A48-8C8C-4466D2406BC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6781800"/>
-          <a:ext cx="304800" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE191F3-9B77-4E44-A2B2-9E0C996E4485}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="6781800"/>
-          <a:ext cx="504825" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1541,33 +1270,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3969003D-A273-4C5D-9B24-6F16C71611B0}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="31" customFormat="1" ht="26.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" s="29" customFormat="1" ht="26.25">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="31" customFormat="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:2" s="29" customFormat="1">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="32" customFormat="1">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:2" s="30" customFormat="1">
+      <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -1587,18 +1316,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1608,11 +1337,421 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF74CB0-8210-4707-8613-AF2031628ED6}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="G1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="49">
+        <v>5</v>
+      </c>
+      <c r="H4" s="50">
+        <v>-1.05</v>
+      </c>
+      <c r="I4" s="49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="G5" s="49">
+        <v>1</v>
+      </c>
+      <c r="H5" s="50">
+        <v>-2.5</v>
+      </c>
+      <c r="I5" s="49">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="G6" s="49">
+        <v>1</v>
+      </c>
+      <c r="H6" s="50">
+        <v>-3</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="G7" s="49">
+        <v>2</v>
+      </c>
+      <c r="H7" s="50">
+        <v>-4</v>
+      </c>
+      <c r="I7" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="G8" s="49">
+        <v>2</v>
+      </c>
+      <c r="H8" s="50">
+        <v>-12</v>
+      </c>
+      <c r="I8" s="49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="G9" s="49">
+        <v>2</v>
+      </c>
+      <c r="H9" s="50">
+        <v>-13</v>
+      </c>
+      <c r="I9" s="49">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="G10" s="49">
+        <v>2</v>
+      </c>
+      <c r="H10" s="50">
+        <v>-14</v>
+      </c>
+      <c r="I10" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="G11" s="49">
+        <v>2</v>
+      </c>
+      <c r="H11" s="50">
+        <v>-35</v>
+      </c>
+      <c r="I11" s="49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="G12" s="49">
+        <v>1</v>
+      </c>
+      <c r="H12" s="50">
+        <v>-55</v>
+      </c>
+      <c r="I12" s="49">
+        <v>55.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="G13" s="49">
+        <v>1</v>
+      </c>
+      <c r="H13" s="50">
+        <v>-121</v>
+      </c>
+      <c r="I13" s="49">
+        <v>20.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CED9BC-1026-4A5E-8588-FB8BDDEBCDBB}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="I3" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="44"/>
+      <c r="C7" s="60"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="46"/>
+      <c r="C8" s="61"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="61"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+      <c r="I11" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="I12" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="I14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15" s="44"/>
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16" s="46"/>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="18" spans="9:10" ht="15.75" thickBot="1"/>
+    <row r="19" spans="9:10" ht="16.5" thickBot="1">
+      <c r="I19" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23" s="44"/>
+      <c r="J23" s="60"/>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="46"/>
+      <c r="J24" s="61"/>
+    </row>
+    <row r="26" spans="9:10" ht="15.75" thickBot="1"/>
+    <row r="27" spans="9:10" ht="16.5" thickBot="1">
+      <c r="I27" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="9:10">
+      <c r="I28" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10">
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="9:10">
+      <c r="I30" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10">
+      <c r="I31" s="44"/>
+      <c r="J31" s="60"/>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="46"/>
+      <c r="J32" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="J30:J32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C11D10-F35D-47D5-BC03-ABC92FC58571}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="33"/>
+    <col min="6" max="6" width="15.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="34"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41838D6B-170A-4B1D-8A32-82B6F1425152}">
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1624,22 +1763,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
@@ -1659,9 +1795,7 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="M4" s="23" t="s">
@@ -1680,12 +1814,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="4"/>
@@ -1704,42 +1838,47 @@
     <row r="7" spans="1:18">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="50"/>
+      <c r="C7" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="64"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="50"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="56"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
+      <c r="L8" s="57"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
@@ -1760,7 +1899,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1814,10 +1953,10 @@
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
@@ -1826,7 +1965,7 @@
       <c r="O14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="41">
         <v>42979</v>
       </c>
       <c r="Q14" s="19"/>
@@ -1848,15 +1987,15 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="13:18">
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="13:18" ht="15" customHeight="1">
+    <row r="17" spans="12:18">
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+    </row>
+    <row r="18" spans="12:18" ht="15" customHeight="1">
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1864,33 +2003,35 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="13:18">
+    <row r="19" spans="12:18">
+      <c r="L19" s="57"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="50" t="s">
+      <c r="O19" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="50"/>
+      <c r="P19" s="64"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="13:18">
+    <row r="20" spans="12:18">
+      <c r="L20" s="57"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="13:18">
+    <row r="21" spans="12:18">
       <c r="M21" s="7"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" spans="13:18">
+    <row r="22" spans="12:18">
       <c r="M22" s="7"/>
       <c r="N22" s="1"/>
       <c r="O22" s="8"/>
@@ -1898,7 +2039,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" spans="13:18">
+    <row r="23" spans="12:18">
       <c r="M23" s="7"/>
       <c r="N23" s="1"/>
       <c r="O23" s="11">
@@ -1908,7 +2049,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="13:18">
+    <row r="24" spans="12:18">
       <c r="M24" s="7"/>
       <c r="N24" s="1"/>
       <c r="O24" s="8"/>
@@ -1916,7 +2057,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="13:18">
+    <row r="25" spans="12:18">
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
       <c r="O25" s="16" t="s">
@@ -1928,7 +2069,7 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="17"/>
     </row>
-    <row r="26" spans="13:18">
+    <row r="26" spans="12:18">
       <c r="M26" s="18"/>
       <c r="N26" s="19"/>
       <c r="O26" s="20" t="s">
@@ -1940,7 +2081,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="22"/>
     </row>
-    <row r="27" spans="13:18" s="30" customFormat="1">
+    <row r="27" spans="12:18" s="28" customFormat="1">
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
@@ -1948,7 +2089,7 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
     </row>
-    <row r="28" spans="13:18" s="30" customFormat="1">
+    <row r="28" spans="12:18" s="28" customFormat="1">
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
@@ -1956,15 +2097,15 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
     </row>
-    <row r="29" spans="13:18">
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-    </row>
-    <row r="30" spans="13:18" ht="15" customHeight="1">
+    <row r="29" spans="12:18">
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+    </row>
+    <row r="30" spans="12:18" ht="15" customHeight="1">
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -1972,33 +2113,35 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="13:18">
+    <row r="31" spans="12:18">
+      <c r="L31" s="57"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="50" t="s">
+      <c r="O31" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="50"/>
+      <c r="P31" s="64"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="9"/>
     </row>
-    <row r="32" spans="13:18">
+    <row r="32" spans="12:18">
+      <c r="L32" s="57"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="13:18">
+    <row r="33" spans="12:18">
       <c r="M33" s="7"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="9"/>
     </row>
-    <row r="34" spans="13:18">
+    <row r="34" spans="12:18">
       <c r="M34" s="7"/>
       <c r="N34" s="1"/>
       <c r="O34" s="8"/>
@@ -2006,7 +2149,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="9"/>
     </row>
-    <row r="35" spans="13:18">
+    <row r="35" spans="12:18">
       <c r="M35" s="7"/>
       <c r="N35" s="1"/>
       <c r="O35" s="11">
@@ -2016,7 +2159,7 @@
       <c r="Q35" s="12"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="13:18">
+    <row r="36" spans="12:18">
       <c r="M36" s="7"/>
       <c r="N36" s="1"/>
       <c r="O36" s="8"/>
@@ -2024,7 +2167,7 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="9"/>
     </row>
-    <row r="37" spans="13:18">
+    <row r="37" spans="12:18">
       <c r="M37" s="14"/>
       <c r="N37" s="15"/>
       <c r="O37" s="16" t="s">
@@ -2036,7 +2179,7 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="17"/>
     </row>
-    <row r="38" spans="13:18">
+    <row r="38" spans="12:18">
       <c r="M38" s="18"/>
       <c r="N38" s="19"/>
       <c r="O38" s="20" t="s">
@@ -2048,7 +2191,7 @@
       <c r="Q38" s="19"/>
       <c r="R38" s="22"/>
     </row>
-    <row r="39" spans="13:18">
+    <row r="39" spans="12:18">
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
@@ -2056,7 +2199,7 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
     </row>
-    <row r="40" spans="13:18">
+    <row r="40" spans="12:18">
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
@@ -2064,15 +2207,15 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
     </row>
-    <row r="41" spans="13:18">
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-    </row>
-    <row r="42" spans="13:18" ht="15" customHeight="1">
+    <row r="41" spans="12:18">
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+    </row>
+    <row r="42" spans="12:18" ht="15" customHeight="1">
       <c r="M42" s="4"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -2080,33 +2223,35 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="13:18">
+    <row r="43" spans="12:18">
+      <c r="L43" s="57"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="50" t="s">
+      <c r="O43" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="P43" s="50"/>
+      <c r="P43" s="64"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="9"/>
     </row>
-    <row r="44" spans="13:18">
+    <row r="44" spans="12:18">
+      <c r="L44" s="57"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="9"/>
     </row>
-    <row r="45" spans="13:18">
+    <row r="45" spans="12:18">
       <c r="M45" s="7"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="9"/>
     </row>
-    <row r="46" spans="13:18">
+    <row r="46" spans="12:18">
       <c r="M46" s="7"/>
       <c r="N46" s="1"/>
       <c r="O46" s="8"/>
@@ -2114,7 +2259,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="13:18">
+    <row r="47" spans="12:18">
       <c r="M47" s="7"/>
       <c r="N47" s="1"/>
       <c r="O47" s="11">
@@ -2124,7 +2269,7 @@
       <c r="Q47" s="12"/>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="13:18">
+    <row r="48" spans="12:18">
       <c r="M48" s="7"/>
       <c r="N48" s="1"/>
       <c r="O48" s="8"/>
@@ -2194,8 +2339,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2227,440 +2371,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C11D10-F35D-47D5-BC03-ABC92FC58571}">
-  <dimension ref="A1:F8"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39E3CF-705D-4F3B-A95B-9212169923CD}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="35"/>
-    <col min="6" max="6" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="17.42578125" style="51" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="36"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="41"/>
+    <row r="1" spans="1:1" ht="26.25">
+      <c r="A1" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="52" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CED9BC-1026-4A5E-8588-FB8BDDEBCDBB}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="44.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B3" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="I3" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="46"/>
-      <c r="C7" s="51"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="48"/>
-      <c r="C8" s="52"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
-      <c r="I11" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="I12" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="I14" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="I15" s="46"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="I16" s="48"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="18" spans="9:10" ht="15.75" thickBot="1"/>
-    <row r="19" spans="9:10" ht="16.5" thickBot="1">
-      <c r="I19" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="54"/>
-    </row>
-    <row r="20" spans="9:10">
-      <c r="I20" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10">
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="9:10">
-      <c r="I22" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10">
-      <c r="I23" s="46"/>
-      <c r="J23" s="51"/>
-    </row>
-    <row r="24" spans="9:10">
-      <c r="I24" s="48"/>
-      <c r="J24" s="52"/>
-    </row>
-    <row r="26" spans="9:10" ht="15.75" thickBot="1"/>
-    <row r="27" spans="9:10" ht="16.5" thickBot="1">
-      <c r="I27" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="54"/>
-    </row>
-    <row r="28" spans="9:10">
-      <c r="I28" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10">
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="9:10">
-      <c r="I30" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10">
-      <c r="I31" s="46"/>
-      <c r="J31" s="51"/>
-    </row>
-    <row r="32" spans="9:10">
-      <c r="I32" s="48"/>
-      <c r="J32" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="I11:J11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF74CB0-8210-4707-8613-AF2031628ED6}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="G1" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="56">
-        <v>5</v>
-      </c>
-      <c r="H4" s="57">
-        <v>-1.05</v>
-      </c>
-      <c r="I4" s="56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="G5" s="56">
-        <v>1</v>
-      </c>
-      <c r="H5" s="57">
-        <v>-2.5</v>
-      </c>
-      <c r="I5" s="56">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="G6" s="56">
-        <v>1</v>
-      </c>
-      <c r="H6" s="57">
-        <v>-3</v>
-      </c>
-      <c r="I6" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="G7" s="56">
-        <v>2</v>
-      </c>
-      <c r="H7" s="57">
-        <v>-4</v>
-      </c>
-      <c r="I7" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="G8" s="56">
-        <v>2</v>
-      </c>
-      <c r="H8" s="57">
-        <v>-12</v>
-      </c>
-      <c r="I8" s="56">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="G9" s="56">
-        <v>2</v>
-      </c>
-      <c r="H9" s="57">
-        <v>-13</v>
-      </c>
-      <c r="I9" s="56">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="G10" s="56">
-        <v>2</v>
-      </c>
-      <c r="H10" s="57">
-        <v>-14</v>
-      </c>
-      <c r="I10" s="56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="G11" s="56">
-        <v>2</v>
-      </c>
-      <c r="H11" s="57">
-        <v>-35</v>
-      </c>
-      <c r="I11" s="56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5">
-      <c r="G12" s="56">
-        <v>1</v>
-      </c>
-      <c r="H12" s="57">
-        <v>-55</v>
-      </c>
-      <c r="I12" s="56">
-        <v>55.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5">
-      <c r="G13" s="56">
-        <v>1</v>
-      </c>
-      <c r="H13" s="57">
-        <v>-121</v>
-      </c>
-      <c r="I13" s="56">
-        <v>20.11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39E3CF-705D-4F3B-A95B-9212169923CD}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>